--- a/sits/msit_tholian.xlsx
+++ b/sits/msit_tholian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="625">
   <si>
     <t>Designation</t>
   </si>
@@ -907,22 +907,22 @@
     <t>FF: Basic Hull §</t>
   </si>
   <si>
-    <t>CPC (3CPC)</t>
-  </si>
-  <si>
-    <t>12T/6</t>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>4U/2</t>
   </si>
   <si>
     <t>Y089</t>
   </si>
   <si>
-    <t>From 3xPC: 3</t>
-  </si>
-  <si>
-    <t>For 3xPC: 7.5</t>
-  </si>
-  <si>
-    <t>Tug (Special Limits); unbreakable group</t>
+    <t>From PC: 1</t>
+  </si>
+  <si>
+    <t>For PC: 2.5</t>
+  </si>
+  <si>
+    <t>Theater transport</t>
   </si>
   <si>
     <t>CMC</t>
@@ -937,9 +937,6 @@
     <t>From PC: 2</t>
   </si>
   <si>
-    <t>For PC: 2.5</t>
-  </si>
-  <si>
     <t>Commando Ship §</t>
   </si>
   <si>
@@ -970,9 +967,6 @@
   </si>
   <si>
     <t>Y124</t>
-  </si>
-  <si>
-    <t>From PC: 1</t>
   </si>
   <si>
     <t>For PC: 3.5</t>
@@ -2786,12 +2780,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="9"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
       <family val="1"/>
@@ -2816,6 +2804,12 @@
       <name val="MS Gothic"/>
       <charset val="1"/>
       <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -2860,10 +2854,10 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -2892,7 +2886,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2901,11 +2895,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2913,7 +2907,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2929,7 +2923,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2937,11 +2931,11 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2949,15 +2943,15 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2965,7 +2959,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2973,15 +2967,11 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2989,23 +2979,19 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3017,7 +3003,7 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3025,7 +3011,7 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3033,7 +3019,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3045,15 +3031,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="168" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3061,7 +3043,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3148,8 +3130,8 @@
   </sheetPr>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A121" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A128" activeCellId="0" pane="topLeft" sqref="A128"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A39" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K46" activeCellId="0" pane="topLeft" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3394,13 +3376,13 @@
       <c r="G9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="22" t="n">
+      <c r="J9" s="21" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="17" t="s">
@@ -3429,13 +3411,13 @@
       <c r="G10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="22" t="n">
+      <c r="J10" s="21" t="n">
         <v>3</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -3443,72 +3425,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="23" t="n">
         <v>46</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="27" t="n">
+      <c r="J11" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="12">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="24" t="n">
+      <c r="B12" s="23" t="n">
         <v>44</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="27" t="n">
+      <c r="J12" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3590,7 +3572,7 @@
       <c r="I15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="28" t="n">
+      <c r="J15" s="26" t="n">
         <v>2.25</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -3619,13 +3601,13 @@
       <c r="G16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="13" t="s">
         <v>79</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="22" t="n">
+      <c r="J16" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K16" s="17" t="s">
@@ -3674,7 +3656,7 @@
       <c r="B18" s="11" t="n">
         <v>938</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="27" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -3703,34 +3685,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="19">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="27" t="n">
+      <c r="J19" s="25" t="n">
         <v>2</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -3744,7 +3726,7 @@
       <c r="B20" s="14" t="n">
         <v>68</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3794,13 +3776,13 @@
       <c r="G21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="13" t="s">
         <v>109</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="31" t="n">
+      <c r="J21" s="29" t="n">
         <v>2.75</v>
       </c>
       <c r="K21" s="17" t="s">
@@ -3808,37 +3790,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="22">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="24" t="n">
+      <c r="B22" s="23" t="n">
         <v>67</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="33" t="n">
+      <c r="J22" s="31" t="n">
         <v>2.25</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="22" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3858,72 +3840,72 @@
       <c r="K23" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="24">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="24" t="n">
+      <c r="B24" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="25" t="n">
+      <c r="E24" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="33" t="n">
+      <c r="J24" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="24" t="n">
+      <c r="B25" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="33" t="n">
+      <c r="J25" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="22" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3963,37 +3945,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="27">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="24" t="n">
+      <c r="B27" s="23" t="n">
         <v>21</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="33" t="n">
+      <c r="J27" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="22" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4025,7 +4007,7 @@
       <c r="I28" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="35" t="n">
+      <c r="J28" s="33" t="n">
         <v>1.25</v>
       </c>
       <c r="K28" s="13" t="s">
@@ -4060,7 +4042,7 @@
       <c r="I29" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="J29" s="35" t="n">
+      <c r="J29" s="33" t="n">
         <v>1.25</v>
       </c>
       <c r="K29" s="13" t="s">
@@ -4074,7 +4056,7 @@
       <c r="B30" s="14" t="n">
         <v>933</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>143</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -4095,7 +4077,7 @@
       <c r="I30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J30" s="35" t="n">
+      <c r="J30" s="33" t="n">
         <v>1.25</v>
       </c>
       <c r="K30" s="13" t="s">
@@ -4103,34 +4085,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="31">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="24" t="n">
+      <c r="B31" s="23" t="n">
         <v>48</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="33" t="n">
+      <c r="J31" s="31" t="n">
         <v>1.25</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -4165,7 +4147,7 @@
       <c r="I32" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="28" t="n">
+      <c r="J32" s="26" t="n">
         <v>1.5</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -4194,13 +4176,13 @@
       <c r="G33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="13" t="s">
         <v>160</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J33" s="31" t="n">
+      <c r="J33" s="29" t="n">
         <v>1.75</v>
       </c>
       <c r="K33" s="17" t="s">
@@ -4229,13 +4211,13 @@
       <c r="G34" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="13" t="s">
         <v>164</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J34" s="22" t="n">
+      <c r="J34" s="21" t="n">
         <v>1.5</v>
       </c>
       <c r="K34" s="17" t="s">
@@ -4243,72 +4225,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="24" t="n">
+      <c r="B35" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="J35" s="33" t="n">
+      <c r="J35" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="22" t="s">
         <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="36">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="24" t="n">
+      <c r="B36" s="23" t="n">
         <v>47</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="25" t="n">
+      <c r="E36" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="J36" s="33" t="n">
+      <c r="J36" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="22" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4355,7 +4337,7 @@
       <c r="I38" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J38" s="28" t="n">
+      <c r="J38" s="26" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -4363,37 +4345,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="39">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="24" t="n">
+      <c r="B39" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="25" t="n">
+      <c r="E39" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="J39" s="27" t="n">
+      <c r="J39" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="22" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4419,13 +4401,13 @@
       <c r="G40" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="13" t="s">
         <v>193</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="J40" s="22" t="n">
+      <c r="J40" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="17" t="s">
@@ -4439,7 +4421,7 @@
       <c r="B41" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="35" t="s">
         <v>197</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -4460,7 +4442,7 @@
       <c r="I41" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="J41" s="35" t="n">
+      <c r="J41" s="33" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="13" t="s">
@@ -4468,72 +4450,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="42">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="24" t="n">
+      <c r="B42" s="23" t="n">
         <v>203</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="25" t="n">
+      <c r="E42" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="22" t="s">
         <v>182</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="I42" s="23" t="s">
+      <c r="I42" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="J42" s="27" t="n">
+      <c r="J42" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" s="22" t="s">
         <v>204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="43">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="24" t="n">
+      <c r="B43" s="23" t="n">
         <v>206</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="25" t="n">
+      <c r="E43" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="22" t="s">
         <v>182</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="J43" s="27" t="n">
+      <c r="J43" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="22" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4580,7 +4562,7 @@
       <c r="I45" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J45" s="38" t="n">
+      <c r="J45" s="36" t="n">
         <v>0.625</v>
       </c>
       <c r="K45" s="7" t="s">
@@ -4591,32 +4573,32 @@
       <c r="A46" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="24" t="n">
+      <c r="B46" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="25" t="n">
+      <c r="E46" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="J46" s="39" t="n">
-        <v>1.875</v>
+      <c r="J46" s="36" t="n">
+        <v>0.625</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>223</v>
@@ -4629,7 +4611,7 @@
       <c r="B47" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="28" t="s">
         <v>225</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -4648,24 +4630,24 @@
         <v>227</v>
       </c>
       <c r="I47" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J47" s="37" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K47" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="J47" s="40" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>229</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="48">
       <c r="A48" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B48" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>231</v>
+      <c r="C48" s="35" t="s">
+        <v>230</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>19</v>
@@ -4674,42 +4656,42 @@
         <v>3</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>214</v>
       </c>
       <c r="H48" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="J48" s="37" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K48" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J48" s="40" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="49">
       <c r="A49" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>239</v>
       </c>
       <c r="E49" s="20" t="n">
         <v>4</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>214</v>
@@ -4718,13 +4700,13 @@
         <v>183</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="J49" s="22" t="n">
+        <v>239</v>
+      </c>
+      <c r="J49" s="21" t="n">
         <v>0</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="50">
@@ -4764,13 +4746,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="51">
       <c r="A51" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B51" s="9" t="n">
         <v>7</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>19</v>
@@ -4785,27 +4767,27 @@
         <v>214</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J51" s="36" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J51" s="38" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="52">
       <c r="A52" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B52" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>249</v>
+      <c r="C52" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>19</v>
@@ -4820,27 +4802,27 @@
         <v>214</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J52" s="38" t="n">
+        <v>232</v>
+      </c>
+      <c r="J52" s="36" t="n">
         <v>0.625</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="53">
       <c r="A53" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>19</v>
@@ -4855,27 +4837,27 @@
         <v>85</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J53" s="17" t="s">
         <v>87</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="54">
       <c r="A54" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B54" s="18" t="n">
         <v>42</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>257</v>
+      <c r="C54" s="38" t="s">
+        <v>255</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>41</v>
@@ -4884,33 +4866,33 @@
         <v>3</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>214</v>
       </c>
       <c r="H54" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="J54" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K54" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="J54" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="55">
       <c r="A55" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B55" s="9" t="n">
         <v>8</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -4925,21 +4907,21 @@
         <v>214</v>
       </c>
       <c r="H55" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J55" s="36" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J55" s="38" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="56">
       <c r="A56" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B56" s="11" t="n">
         <v>204</v>
@@ -4960,10 +4942,10 @@
         <v>214</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J56" s="12" t="n">
         <v>1.5</v>
@@ -4974,7 +4956,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="57">
       <c r="A57" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -4989,77 +4971,77 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="58">
       <c r="A58" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B58" s="11" t="n">
         <v>52</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E58" s="9" t="n">
         <v>3</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="I58" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="J58" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="59">
       <c r="A59" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E59" s="9" t="n">
         <v>3</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="J59" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="60">
       <c r="A60" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -5074,16 +5056,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="61">
       <c r="A61" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="D61" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E61" s="11" t="n">
         <v>0</v>
@@ -5092,59 +5074,59 @@
         <v>104</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J61" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K61" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="62">
+      <c r="A62" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="62">
-      <c r="A62" s="23" t="s">
+      <c r="C62" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="D62" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="H62" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I62" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G62" s="23" t="s">
+      <c r="J62" s="31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K62" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="J62" s="33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K62" s="23" t="s">
-        <v>297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="63">
       <c r="A63" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5159,7 +5141,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="64">
       <c r="A64" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -5173,43 +5155,43 @@
       <c r="K64" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="65">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="B65" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="C65" s="23" t="s">
+      <c r="H65" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I65" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="D65" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="23" t="s">
+      <c r="J65" s="25" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="H65" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="J65" s="27" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="66">
       <c r="A66" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5224,7 +5206,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="67">
       <c r="A67" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5239,7 +5221,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="68">
       <c r="A68" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -5254,13 +5236,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="69">
       <c r="A69" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B69" s="11" t="n">
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>41</v>
@@ -5272,59 +5254,59 @@
         <v>35</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J69" s="12" t="n">
         <v>4.8</v>
       </c>
       <c r="K69" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="70">
+      <c r="A70" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" s="23" t="n">
+        <v>74</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="70">
-      <c r="A70" s="23" t="s">
+      <c r="D70" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B70" s="24" t="n">
-        <v>74</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="E70" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H70" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="I70" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="E70" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="H70" s="23" t="s">
+      <c r="J70" s="25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K70" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="J70" s="27" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K70" s="23" t="s">
-        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="71">
       <c r="A71" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -5339,13 +5321,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B72" s="11" t="n">
         <v>63</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>41</v>
@@ -5357,30 +5339,30 @@
         <v>35</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J72" s="12" t="n">
         <v>3</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>91</v>
@@ -5392,13 +5374,13 @@
         <v>42</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J73" s="12" t="n">
         <v>3</v>
@@ -5408,43 +5390,43 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="74">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" s="23" t="n">
+        <v>77</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H74" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B74" s="24" t="n">
-        <v>77</v>
-      </c>
-      <c r="C74" s="23" t="s">
+      <c r="I74" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="J74" s="27" t="n">
+      <c r="J74" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="K74" s="23" t="s">
+      <c r="K74" s="22" t="s">
         <v>177</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B75" s="11" t="n">
         <v>205</v>
@@ -5462,13 +5444,13 @@
         <v>108</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J75" s="12" t="n">
         <v>5.2</v>
@@ -5479,7 +5461,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="76">
       <c r="A76" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -5494,13 +5476,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="77">
       <c r="A77" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B77" s="11" t="n">
         <v>64</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>41</v>
@@ -5512,27 +5494,27 @@
         <v>35</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J77" s="12" t="n">
         <v>2.4</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="78">
       <c r="A78" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>103</v>
@@ -5547,13 +5529,13 @@
         <v>42</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J78" s="12" t="n">
         <v>2.4</v>
@@ -5564,7 +5546,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="79">
       <c r="A79" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -5578,38 +5560,38 @@
       <c r="K79" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="80">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B80" s="23" t="n">
+        <v>71</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E80" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="B80" s="24" t="n">
-        <v>71</v>
-      </c>
-      <c r="C80" s="32" t="s">
+      <c r="H80" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I80" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E80" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" s="23" t="s">
+      <c r="J80" s="25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K80" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I80" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="J80" s="27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="81">
@@ -5648,43 +5630,43 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="82">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="D82" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E82" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="H82" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="I82" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E82" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G82" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="H82" s="23" t="s">
+      <c r="J82" s="25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K82" s="22" t="s">
         <v>356</v>
-      </c>
-      <c r="I82" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="J82" s="27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K82" s="23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="83">
       <c r="A83" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -5698,78 +5680,78 @@
       <c r="K83" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="84">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" s="23" t="n">
+        <v>72</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E84" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="B84" s="24" t="n">
-        <v>72</v>
-      </c>
-      <c r="C84" s="32" t="s">
+      <c r="H84" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I84" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="D84" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E84" s="25" t="n">
+      <c r="J84" s="25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="85">
+      <c r="A85" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F84" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="H84" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I84" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="J84" s="27" t="n">
+      <c r="F85" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="I85" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="J85" s="25" t="n">
         <v>0.9</v>
       </c>
-      <c r="K84" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="85">
-      <c r="A85" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E85" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="H85" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="I85" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="J85" s="27" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K85" s="23" t="s">
-        <v>358</v>
+      <c r="K85" s="22" t="s">
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="86">
       <c r="A86" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5784,7 +5766,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="87">
       <c r="A87" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5799,13 +5781,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>41</v>
@@ -5814,30 +5796,30 @@
         <v>0</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J88" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>215</v>
@@ -5849,27 +5831,27 @@
         <v>0</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J89" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="90">
       <c r="A90" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5884,13 +5866,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B91" s="11" t="n">
         <v>22</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>71</v>
@@ -5899,132 +5881,132 @@
         <v>6</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J91" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K91" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="92">
+      <c r="A92" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B92" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="92">
-      <c r="A92" s="23" t="s">
+      <c r="C92" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="D92" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="G92" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E92" s="24" t="n">
+      <c r="H92" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="J92" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="93">
+      <c r="A93" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E93" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F92" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I92" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="J92" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K92" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="93">
-      <c r="A93" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="B93" s="23" t="s">
+      <c r="F93" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="G93" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I93" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="D93" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E93" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" s="23" t="s">
+      <c r="J93" s="31" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K93" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I93" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="J93" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K93" s="23" t="s">
-        <v>399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E94" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H94" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I94" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="B94" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E94" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="G94" s="7" t="s">
+      <c r="J94" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" s="22" t="s">
         <v>391</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I94" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="J94" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" s="23" t="s">
-        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="95">
       <c r="A95" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -6039,7 +6021,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -6054,7 +6036,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="97">
       <c r="A97" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -6068,49 +6050,49 @@
       <c r="K97" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="98">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="B98" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B98" s="24" t="n">
-        <v>62</v>
-      </c>
-      <c r="C98" s="23" t="s">
+      <c r="G98" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="D98" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" s="23" t="s">
+      <c r="H98" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I98" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="J98" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H98" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I98" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="J98" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="99">
       <c r="A99" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B99" s="11" t="n">
         <v>19</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>71</v>
@@ -6119,33 +6101,33 @@
         <v>0</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J99" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="100">
       <c r="A100" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B100" s="11" t="n">
         <v>25</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>19</v>
@@ -6157,30 +6139,30 @@
         <v>64</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J100" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="101">
       <c r="A101" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>420</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>422</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>41</v>
@@ -6189,33 +6171,33 @@
         <v>0</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>215</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J101" s="16" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="102">
       <c r="A102" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>426</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>428</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>71</v>
@@ -6224,36 +6206,36 @@
         <v>6</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>215</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J102" s="16" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="103">
       <c r="A103" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>433</v>
-      </c>
       <c r="D103" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E103" s="20" t="n">
         <v>6</v>
@@ -6262,94 +6244,94 @@
         <v>98</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H103" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="J103" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="I103" s="17" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="104">
+      <c r="A104" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="J103" s="22" t="n">
+      <c r="B104" s="23" t="n">
+        <v>31</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I104" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="J104" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K103" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="104">
-      <c r="A104" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="B104" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="D104" s="23" t="s">
+      <c r="K104" s="22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="105">
+      <c r="A105" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D105" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E104" s="25" t="n">
+      <c r="E105" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F104" s="23" t="s">
+      <c r="F105" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="G104" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="I104" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="J104" s="27" t="n">
+      <c r="G105" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="H105" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I105" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="J105" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K104" s="23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="105">
-      <c r="A105" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="C105" s="8" t="s">
+      <c r="K105" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I105" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="J105" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="106">
       <c r="A106" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -6364,13 +6346,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B107" s="11" t="n">
         <v>18</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>71</v>
@@ -6379,33 +6361,33 @@
         <v>0</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J107" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>41</v>
@@ -6414,33 +6396,33 @@
         <v>0</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J108" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="109">
       <c r="A109" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>458</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>460</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>71</v>
@@ -6449,22 +6431,22 @@
         <v>3</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>215</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J109" s="16" t="n">
         <v>0.5</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="110">
@@ -6504,13 +6486,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="111">
       <c r="A111" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B111" s="18" t="n">
         <v>53</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>27</v>
@@ -6522,94 +6504,94 @@
         <v>28</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>215</v>
       </c>
       <c r="I111" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="J111" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="112">
+      <c r="A112" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="J111" s="22" t="n">
+      <c r="B112" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="J112" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="K111" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="112">
-      <c r="A112" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E112" s="25" t="n">
+      <c r="K112" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="113">
+      <c r="A113" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F112" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G112" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="H112" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="I112" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="J112" s="27" t="n">
+      <c r="F113" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="H113" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="J113" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="K112" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="113">
-      <c r="A113" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F113" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="G113" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="H113" s="23" t="s">
+      <c r="K113" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="I113" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="J113" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="114">
       <c r="A114" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -6624,13 +6606,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="115">
       <c r="A115" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B115" s="9" t="n">
         <v>5</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>19</v>
@@ -6639,103 +6621,103 @@
         <v>0</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J115" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="116">
       <c r="A116" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="C116" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="D116" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I116" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="J116" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="D116" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E116" s="25" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="117">
+      <c r="A117" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="B117" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F116" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="G116" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H116" s="23" t="s">
+      <c r="F117" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="H117" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="I116" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="J116" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" s="23" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="117">
-      <c r="A117" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="B117" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E117" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" s="23" t="s">
+      <c r="I117" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="G117" s="23" t="s">
+      <c r="J117" s="25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K117" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="H117" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="I117" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="J117" s="27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K117" s="26" t="s">
-        <v>494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="118">
       <c r="A118" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B118" s="18" t="n">
         <v>67</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>27</v>
@@ -6744,33 +6726,33 @@
         <v>3</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H118" s="17" t="s">
         <v>215</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="J118" s="22" t="n">
+        <v>497</v>
+      </c>
+      <c r="J118" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="K118" s="21" t="s">
-        <v>500</v>
+      <c r="K118" s="13" t="s">
+        <v>498</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="119">
       <c r="A119" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B119" s="18" t="n">
         <v>33</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>71</v>
@@ -6779,68 +6761,68 @@
         <v>0</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G119" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H119" s="21" t="s">
+      <c r="H119" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="J119" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="I119" s="17" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="120">
+      <c r="A120" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="J119" s="22" t="n">
+      <c r="B120" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="K119" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="120">
-      <c r="A120" s="23" t="s">
+      <c r="F120" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="B120" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C120" s="23" t="s">
+      <c r="G120" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I120" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="D120" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E120" s="25" t="n">
+      <c r="J120" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F120" s="23" t="s">
+      <c r="K120" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G120" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="H120" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I120" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="J120" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="121">
       <c r="A121" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B121" s="11" t="n">
         <v>20</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>41</v>
@@ -6852,59 +6834,59 @@
         <v>92</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J121" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K121" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="122">
+      <c r="A122" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="B122" s="23" t="n">
+        <v>45</v>
+      </c>
+      <c r="C122" s="27" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="122">
-      <c r="A122" s="23" t="s">
+      <c r="D122" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G122" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="B122" s="24" t="n">
-        <v>45</v>
-      </c>
-      <c r="C122" s="29" t="s">
+      <c r="H122" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I122" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="D122" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F122" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G122" s="23" t="s">
+      <c r="J122" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="H122" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I122" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="J122" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="123">
       <c r="A123" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -6919,7 +6901,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="124">
       <c r="A124" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -6934,7 +6916,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="125">
       <c r="A125" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -6949,13 +6931,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="126">
       <c r="A126" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>71</v>
@@ -6964,68 +6946,68 @@
         <v>8</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J126" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="127">
+      <c r="A127" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="B127" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C127" s="32" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="127">
-      <c r="A127" s="23" t="s">
+      <c r="D127" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="G127" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="B127" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C127" s="34" t="s">
+      <c r="H127" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="D127" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="F127" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="G127" s="23" t="s">
+      <c r="I127" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J127" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" s="22" t="s">
         <v>531</v>
-      </c>
-      <c r="H127" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="I127" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="J127" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" s="23" t="s">
-        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="128">
       <c r="A128" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B128" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="C128" s="29" t="s">
-        <v>535</v>
+      <c r="C128" s="27" t="s">
+        <v>533</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>19</v>
@@ -7034,33 +7016,33 @@
         <v>0</v>
       </c>
       <c r="F128" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I128" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="J128" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="129">
       <c r="A129" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B129" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="C129" s="29" t="s">
-        <v>541</v>
+      <c r="C129" s="27" t="s">
+        <v>539</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>19</v>
@@ -7069,33 +7051,33 @@
         <v>6</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J129" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="130">
       <c r="A130" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B130" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C130" s="36" t="s">
-        <v>544</v>
+      <c r="C130" s="34" t="s">
+        <v>542</v>
       </c>
       <c r="D130" s="17" t="s">
         <v>19</v>
@@ -7104,33 +7086,33 @@
         <v>10</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="J130" s="22" t="n">
+        <v>273</v>
+      </c>
+      <c r="J130" s="21" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="131">
       <c r="A131" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="B131" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B131" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D131" s="13" t="s">
         <v>19</v>
@@ -7142,30 +7124,30 @@
         <v>64</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J131" s="16" t="n">
         <v>0</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="132">
       <c r="A132" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B132" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C132" s="37" t="s">
-        <v>551</v>
+      <c r="C132" s="35" t="s">
+        <v>549</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>41</v>
@@ -7174,33 +7156,33 @@
         <v>0</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H132" s="13" t="s">
         <v>215</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J132" s="16" t="n">
         <v>0</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="133">
       <c r="A133" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>34</v>
@@ -7209,68 +7191,68 @@
         <v>0</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>215</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J133" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="134">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B134" s="23" t="s">
+      <c r="D134" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G134" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="H134" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="D134" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F134" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G134" s="23" t="s">
+      <c r="I134" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="H134" s="7" t="s">
+      <c r="J134" s="23" t="n">
+        <v>150</v>
+      </c>
+      <c r="K134" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="I134" s="23" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="135">
+      <c r="A135" s="13" t="s">
         <v>562</v>
-      </c>
-      <c r="J134" s="24" t="n">
-        <v>150</v>
-      </c>
-      <c r="K134" s="23" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="135">
-      <c r="A135" s="21" t="s">
-        <v>564</v>
       </c>
       <c r="B135" s="18" t="n">
         <v>17</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>41</v>
@@ -7282,30 +7264,30 @@
         <v>35</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H135" s="17" t="s">
         <v>215</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="J135" s="22" t="n">
+        <v>564</v>
+      </c>
+      <c r="J135" s="21" t="n">
         <v>0</v>
       </c>
       <c r="K135" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="136">
       <c r="A136" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B136" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C136" s="30" t="s">
-        <v>569</v>
+      <c r="C136" s="28" t="s">
+        <v>567</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>41</v>
@@ -7317,19 +7299,19 @@
         <v>168</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H136" s="13" t="s">
         <v>215</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J136" s="16" t="n">
         <v>0</v>
       </c>
       <c r="K136" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="137">
@@ -7369,16 +7351,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="138">
       <c r="A138" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C138" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="B138" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C138" s="37" t="s">
-        <v>574</v>
-      </c>
       <c r="D138" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E138" s="20" t="n">
         <v>9</v>
@@ -7387,129 +7369,129 @@
         <v>174</v>
       </c>
       <c r="G138" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="J138" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="H138" s="21" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="139">
+      <c r="A139" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="I138" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="J138" s="22" t="n">
+      <c r="C139" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="I139" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J139" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K138" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="139">
-      <c r="A139" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="C139" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="D139" s="23" t="s">
+      <c r="K139" s="22" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="140">
+      <c r="A140" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="D140" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E139" s="25" t="n">
+      <c r="E140" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="I140" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J140" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="141">
+      <c r="A141" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F139" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="G139" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="H139" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="I139" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="J139" s="27" t="n">
+      <c r="F141" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="I141" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="J141" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K139" s="23" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="140">
-      <c r="A140" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="C140" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E140" s="25" t="n">
-        <v>11</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="G140" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="H140" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="I140" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="J140" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" s="23" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="141">
-      <c r="A141" s="23" t="s">
-        <v>587</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C141" s="8" t="s">
+      <c r="K141" s="22" t="s">
         <v>589</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E141" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F141" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G141" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="H141" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="I141" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="J141" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" s="23" t="s">
-        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="142">
       <c r="A142" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -7523,78 +7505,78 @@
       <c r="K142" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="143">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="B143" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H143" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I143" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B143" s="24" t="n">
+      <c r="J143" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" s="22" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="144">
+      <c r="A144" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="B144" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="C143" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="D143" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E143" s="25" t="n">
+      <c r="C144" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F143" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="G143" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="H143" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I143" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="J143" s="27" t="n">
+      <c r="F144" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H144" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="J144" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K143" s="23" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="144">
-      <c r="A144" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B144" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="H144" s="23" t="s">
+      <c r="K144" s="22" t="s">
         <v>599</v>
-      </c>
-      <c r="I144" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="J144" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" s="23" t="s">
-        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="145">
       <c r="A145" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -7608,49 +7590,49 @@
       <c r="K145" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="146">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H146" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I146" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="B146" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E146" s="25" t="n">
+      <c r="J146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F146" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="G146" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="H146" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I146" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="J146" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" s="23" t="s">
-        <v>603</v>
+      <c r="K146" s="22" t="s">
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="147">
       <c r="A147" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>41</v>
@@ -7659,143 +7641,143 @@
         <v>1</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J147" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="148">
       <c r="A148" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="C148" s="30" t="s">
-        <v>611</v>
+        <v>484</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>609</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E148" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F148" s="21" t="s">
+      <c r="F148" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="I148" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="J148" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" s="17" t="s">
         <v>612</v>
-      </c>
-      <c r="G148" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="H148" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I148" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="J148" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" s="17" t="s">
-        <v>614</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="149">
       <c r="A149" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C149" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="D149" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E149" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J149" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="150">
       <c r="A150" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E150" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J150" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="151">
-      <c r="A151" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="B151" s="43"/>
-      <c r="C151" s="43"/>
-      <c r="D151" s="43"/>
-      <c r="E151" s="43"/>
-      <c r="F151" s="43"/>
-      <c r="G151" s="43"/>
-      <c r="H151" s="43"/>
-      <c r="I151" s="43"/>
-      <c r="J151" s="43"/>
-      <c r="K151" s="43"/>
+      <c r="A151" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="B151" s="40"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="27">

--- a/sits/msit_tholian.xlsx
+++ b/sits/msit_tholian.xlsx
@@ -1148,7 +1148,7 @@
     </r>
   </si>
   <si>
-    <t>From PC or DD: 5</t>
+    <t>From PC/DD: 5</t>
   </si>
   <si>
     <t>For PC: 7.5</t>
@@ -3130,8 +3130,8 @@
   </sheetPr>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A39" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K46" activeCellId="0" pane="topLeft" sqref="K46"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A36" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H55" activeCellId="0" pane="topLeft" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
